--- a/Ecom/resources/ExcelData/Data2.xlsx
+++ b/Ecom/resources/ExcelData/Data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bshra\Git\Internship\Ecom\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37329EA8-BCC4-4548-A12A-BE7B90CE5656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F8A3D0-ED4D-45EA-A854-7A8CDAF8E5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>productName</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>IPHONE</t>
-  </si>
-  <si>
-    <t>SAMSUNG GALAXY</t>
   </si>
   <si>
     <t>paymentMetho</t>
@@ -384,7 +381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -431,10 +428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A610E7F-D95A-4633-B2DB-6589574461F8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -463,14 +460,6 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
